--- a/imoveis.xlsx
+++ b/imoveis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,7 +521,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24/06/2023</t>
+          <t>13/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -536,12 +536,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Rua Toledo</t>
+          <t>Balneario Água Limpa</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vila Castela</t>
+          <t>inexistente</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -571,405 +576,38 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>400</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>R$ 8.500.000</t>
+          <t>R$ 2.300.000</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>R$ 1.500</t>
+          <t>R$ 650</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>R$ 200</t>
+          <t>isento</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>TWA INVESTIMENTOS</t>
+          <t>C10 imóveis Ltda</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-mobiliado-vila-castela-nova-lima-890m2-id-2640402169/</t>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-balneario-agua-limpa-nova-lima-mg-400m2-id-2734702856/</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2640402169</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>22/08/2024</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>cep</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Alameda São Gotardo</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Vila Alpina</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Nova Lima</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>550</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>R$ 4.990.000</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>R$ 1.390.000</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>R$ 220</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>TWA INVESTIMENTOS</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-vila-alpina-nova-lima-550m2-id-2736616140/</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2736616140</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>26/07/2024</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>cep</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Rua Doutor Cássio Magnani</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Centro</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Nova Lima</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>430</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>R$ 2.890.000</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>isento</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>R$ 85</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>ROSCOE CONSULTORIA IMOBILIARIA LTDA</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-centro-nova-lima-430m2-id-2730846224/</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>2730846224</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>21/08/2023</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>cep</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Avenida Reis Magos</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vila Castela</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Nova Lima</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>R$ 11.500.000</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>R$ 1.900</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>R$ 250</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Antônio Jorge Salum Junior</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-vila-castela-nova-lima-mg-800m2-id-2650949370/</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>2650949370</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>21/08/2023</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>cep</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Avenida Reis Magos</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vila Castela</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Nova Lima</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>R$ 11.500.000</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>R$ 1.900</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>R$ 250</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Antônio Jorge Salum Junior</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-vila-castela-nova-lima-800m2-id-2650949370/</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>2650949370</t>
+          <t>2734702856</t>
         </is>
       </c>
     </row>

--- a/imoveis.xlsx
+++ b/imoveis.xlsx
@@ -1,34 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\aapteste\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A713E97A-A229-4CBB-9F38-8CD88513AF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Imóveis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Imóveis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>data_inclusao</t>
+  </si>
+  <si>
+    <t>tipo_imovel</t>
+  </si>
+  <si>
+    <t>cep_endereco</t>
+  </si>
+  <si>
+    <t>logradouro_endereco</t>
+  </si>
+  <si>
+    <t>numero_endereço</t>
+  </si>
+  <si>
+    <t>bairro_endereco</t>
+  </si>
+  <si>
+    <t>uf_endereco</t>
+  </si>
+  <si>
+    <t>cidade_endereco</t>
+  </si>
+  <si>
+    <t>dormitorios</t>
+  </si>
+  <si>
+    <t>suites</t>
+  </si>
+  <si>
+    <t>vagas</t>
+  </si>
+  <si>
+    <t>area_util</t>
+  </si>
+  <si>
+    <t>vlr_venda</t>
+  </si>
+  <si>
+    <t>vlr_aluguel</t>
+  </si>
+  <si>
+    <t>vlr_condominio</t>
+  </si>
+  <si>
+    <t>vlr_iptu</t>
+  </si>
+  <si>
+    <t>anunciante</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>codigo_imovel</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +113,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,207 +415,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>data_inclusao</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>tipo_imovel</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>cep_endereco</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>logradouro_endereco</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>numero_endereço</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>bairro_endereco</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>uf_endereco</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>cidade_endereco</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>dormitorios</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>suites</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>vagas</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>area_util</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>vlr_venda</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>vlr_aluguel</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>vlr_condominio</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>vlr_iptu</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>anunciante</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>codigo_imovel</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>13/08/2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Casa</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>cep</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Balneario Água Limpa</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>inexistente</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>inexistente</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Nova Lima</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>R$ 2.300.000</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>R$ 650</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>isento</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>C10 imóveis Ltda</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-balneario-agua-limpa-nova-lima-mg-400m2-id-2734702856/</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2734702856</t>
-        </is>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/imoveis.xlsx
+++ b/imoveis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,4656 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Rua Mares de Montanhas - Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>R$ 9.900.000</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>R$ 2.100</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-750m2-id-2735492313/</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2735492313</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>14/08/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>34018-284</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Rua dos Aviadores</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Balneario Água Limpa</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>R$ 2.300.000</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>R$ 650</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>não informado</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>MEL IMOVEIS</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-balneario-agua-limpa-nova-lima-400m2-id-2735051217/</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2735051217</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10/05/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Praça Pico da Bandeira - Vila del Rey</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>707</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>R$ 4.499.000</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>R$ 1.631</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>R$ 4.208</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Italo Tobias Negócios Imobiliários</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-vila-del-rey-nova-lima-707m2-id-2562224010/</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2562224010</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>23/08/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>34008-095</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rua Estrela da Manhã</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>R$ 14.700.000</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>R$ 1.720</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>R$ 706</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>IBH IMOVEIS</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-dos-cristais-nova-lima-1200m2-id-2737119262/</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2737119262</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>25/10/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>R$ 3.200.000</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>R$ 734</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>R$ 439</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-464m2-id-2587578095/</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2587578095</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rua Granada - Vila Castela</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>R$ 5.950.000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>R$ 1.400</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>R$ 400</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-castela-nova-lima-mg-520m2-id-2735489999/</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2735489999</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Rua Mares de Montanhas - Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>R$ 9.900.000</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>R$ 2.100</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-mg-750m2-id-2735492313/</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2735492313</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>26/06/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>59999</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>R$ 3.500.000</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>R$ 1.240</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>R$ 2.657</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-580m2-id-2724504252/</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2724504252</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08/10/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>34018-252</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Rua do Japão</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ville Des Lacs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>R$ 2.000.000</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>R$ 650</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>R$ 1.200</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Norte Sul Imóveis - Buritis</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-balneario-agua-limpa-nova-lima-490m2-id-2748024412/</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2748024412</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>14/10/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33669</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>R$ 3.350.000</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>R$ 1.890</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-257m2-id-2749248959/</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2749248959</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10/08/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Rua dos Beija-Flores - Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1100</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>R$ 10.800.000</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>R$ 1.890</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>R$ 4.920</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-1100m2-id-2734103751/</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2734103751</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06/09/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>34003-067</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Rua Alfa</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Condominio Quintas do Sol</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>R$ 3.700.000</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>R$ 1.500</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>R$ 980</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Vera Castro</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-quintas-do-sol-nova-lima-384m2-id-2740313122/</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2740313122</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>34003-067</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Rua Alfa</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>8889</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Condominio Quintas do Sol</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>R$ 5.950.000</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>R$ 600</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>R$ 2.100</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-quintas-do-sol-nova-lima-620m2-id-2741659768/</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2741659768</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>28/11/2023</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Ouro Velho Mansões</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>R$ 3.100.000</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Corretores Net</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-vila-odete-nova-lima-405m2-id-2672541809/</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2672541809</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10/01/2023</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>34018-006</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Avenida Princesa Diana</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Costa Laguna</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>R$ 3.590.000</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>R$ 900</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>R$ 2.900</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Metropolitan Corretora</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-5-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-387m2-id-2604673484/</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2604673484</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>07/08/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Avenida Toronto - Jardim Canada</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>R$ 750.000</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Jefferson E. O. Motta</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-jardim-canada-nova-lima-380m2-id-2733497529/</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2733497529</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12/04/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>R$ 5.500.000</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>R$ 1.100</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>R$ 2.633</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-390m2-id-2706960128/</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2706960128</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>24/10/2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Condominio Alphaville</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>R$ 2.990.000</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>R$ 762</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>R$ 344</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-450m2-id-2587236065/</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2587236065</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>36369</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>603</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>R$ 5.800.000</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>R$ 1.387</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>R$ 2.968</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-603m2-id-2722892835/</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2722892835</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>27/08/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Rua Amazonas - Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>R$ 7.800.000</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>R$ 3.360</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-666m2-id-2737751233/</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2737751233</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>09/09/2023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Condominio Alphaville</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>R$ 3.490.000</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>R$ 2.117</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-333m2-id-2654802146/</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2654802146</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>18/09/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>8622</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>R$ 2.950.000</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>R$ 866</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>R$ 2.800</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-326m2-id-2743254460/</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2743254460</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Via Solaris - Condominio Quintas do Sol</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>R$ 4.490.000</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>R$ 1.200</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>R$ 352</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-quintas-do-sol-nova-lima-400m2-id-2631063232/</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2631063232</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>13/09/2023</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>34009-550</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Avenida Manuel Bandeira</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Pasárgada</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>R$ 2.500.000</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>R$ 1.000</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>R$ 2.100</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>IMMPERIAL IMOVEIS</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-pasargada-nova-lima-600m2-id-2655505063/</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2655505063</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>28/09/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Vila del Rey</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>710</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>R$ 5.400.000</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Corretores Net</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-churrasqueira-vila-del-rey-nova-lima-710m2-id-2745773708/</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2745773708</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>21/08/2023</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>34007-082</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Avenida Reis Magos</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Vila Castela</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>R$ 11.500.000</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>R$ 1.900</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>R$ 250</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Antônio Jorge Salum Junior</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-vila-castela-nova-lima-mg-800m2-id-2650949370/</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2650949370</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>09/07/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>34009-550</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Avenida Manuel Bandeira</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Pasárgada</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>R$ 2.300.000</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>R$ 1.000</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>R$ 257</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-pasargada-nova-lima-320m2-id-2727373579/</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2727373579</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17/07/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Rua Paranapanema - Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>R$ 3.690.000</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-varanda-alphaville-lagoa-dos-ingleses-nova-lima-309m2-id-2728977317/</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2728977317</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Rua das Bromélias - Condomínio Village Terrasse</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>R$ 5.700.000</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>R$ 1.400</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>R$ 200</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-village-terrasse-i-nova-lima-460m2-id-2631065742/</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2631065742</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>22/07/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>34018-000</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Avenida Regent</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>R$ 2.800.000</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>R$ 1.146</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>R$ 476</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>REALIZA IMOVEIS</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-350m2-id-2730056625/</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2730056625</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>14/03/2023</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>34012-442</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Rua Rio Doce</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>855</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>R$ 4.980.000</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>OPAVENDI IMOBILIÁRIA DESCOMPLICADA LTDAOPAVENDI</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-855m2-id-2618570487/</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2618570487</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>24/07/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Alameda das Gralhas - Residencial Sul</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>R$ 2.900.000</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>R$ 572</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>R$ 2.365</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-residencial-sul-nova-lima-557m2-id-2730421620/</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2730421620</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>11/05/2023</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Rua Aroeira - Mirante da Mata</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>R$ 2.990.000</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>R$ 840</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>R$ 3.240</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-mirante-da-mata-nova-lima-380m2-id-2631611909/</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2631611909</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>19/09/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>34018-092</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Rua dos Flamboyants</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>R$ 2.689.340</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>USUÁRIO NEWCORE</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-alphaville-lagoa-dos-ingleses-nova-lima-298m2-id-2743486692/</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2743486692</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>09/10/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>9687</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>R$ 1.980.000</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>R$ 1.165</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>R$ 2.900</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-jardim-alphaville-lagoa-dos-ingleses-nova-lima-264m2-id-2748119304/</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2748119304</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>28/06/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>R$ 1.650.000</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>R$ 1.065</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>R$ 2.856</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-430m2-id-2725048757/</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2725048757</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>11/03/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>34007-215</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Alameda Serra do Cabral</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Vila del Rey</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>R$ 4.499.000</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>R$ 1.380</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>R$ 450</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Corretores Net</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-del-rey-nova-lima-3000m2-id-2697411488/</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2697411488</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>19/06/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>6666</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>R$ 3.480.000</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>R$ 2.000</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-260m2-id-2722914737/</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2722914737</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>03/05/2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>R$ 7.650.000</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>R$ 1.152</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>R$ 2.460</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-653m2-id-2712401910/</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2712401910</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>10/09/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>34003-085</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Rua Aldebaran</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1184</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Condominio Quintas do Sol</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>R$ 6.450.000</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>R$ 1.400</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>R$ 3.000</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-quintas-do-sol-nova-lima-640m2-id-2741114168/</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2741114168</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Avenida Alpina - Vila Alpina</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>R$ 4.900.000</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>R$ 1.642</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>R$ 236</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-alpina-nova-lima-550m2-id-2735492225/</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2735492225</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>03/01/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Rua Mares de Montanhas - Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>R$ 9.000.000</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>R$ 1.500</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>R$ 300</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-vale-dos-cristais-nova-lima-750m2-id-2680687695/</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2680687695</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>31/01/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>34008-056</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Rua Mares de Montanhas</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>R$ 5.800.000</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>R$ 2.300</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>R$ 45.882</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Borges Camelo - Buritis</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-415m2-id-2687476715/</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2687476715</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>26/12/2023</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Alameda Serra do Cabral - Vila del Rey</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>R$ 3.400.000</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>R$ 1.200</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>R$ 7.517</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>JOSÉ SILVIO DE ANDRADE FILHO</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-vila-del-rey-nova-lima-900m2-id-2679007401/</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2679007401</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>15/12/2023</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>R$ 6.790.000</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>R$ 400</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-550m2-id-2676629251/</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2676629251</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>25/04/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>R$ 3.490.000</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>R$ 2.230</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-academia-alphaville-lagoa-dos-ingleses-nova-lima-291m2-id-2710848872/</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2710848872</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>25/04/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>R$ 3.990.000</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>R$ 1.146</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>R$ 2.100</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-394m2-id-2710837200/</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>2710837200</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Rua Aroeira - Mirante da Mata</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>R$ 2.095.000</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>R$ 850</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>R$ 140</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-mirante-da-mata-nova-lima-290m2-id-2631064903/</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2631064903</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>23/12/2023</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>34018-034</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Alameda dos Inconfidentes</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>R$ 6.500.000</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Imoveis Alto Luxo</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-500m2-id-2678492882/</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>2678492882</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>14/10/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>34009-254</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Alameda das Candeias</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Macacos</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>R$ 750.000</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Bens de Raiz Imoveis</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-parque-jardim-amanda-nova-lima-282m2-id-2749313849/</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>2749313849</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/imoveis.xlsx
+++ b/imoveis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5168,6 +5168,4656 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>30/04/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>R$ 3.990.000</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>R$ 1.100</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>R$ 2.435</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-430m2-id-2711803001/</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>2711803001</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Rua dos Beija-Flores - Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>R$ 4.945.000</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>R$ 1.190</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>R$ 150</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-377m2-id-2631063453/</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>2631063453</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>22/09/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>34011-093</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Avenida Quinta Avenida</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Vale do Sol</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>R$ 1.099.680</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>USUÁRIO NEWCORE</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-vale-do-sol-nova-lima-254m2-id-2744261184/</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>2744261184</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>02/05/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>34018-273</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Rua dos Motoristas</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Ville Des Lacs</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>R$ 2.450.000</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>R$ 550</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>R$ 1.980</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-area-de-lazer-balneario-agua-limpa-nova-lima-300m2-id-2712205526/</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>2712205526</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>19/09/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>34011-042</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Rua Ganimedes</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Vale do Sol</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>R$ 2.499.600</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>USUÁRIO NEWCORE</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vale-do-sol-nova-lima-296m2-id-2743486415/</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>2743486415</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>22/07/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>34003-064</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Rua Gama</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Condominio Quintas do Sol</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>R$ 4.890.000</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>R$ 1.500</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>R$ 200</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Elias Madi</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-quintas-do-sol-nova-lima-482m2-id-2730073335/</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>2730073335</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>26/06/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>5269</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>R$ 9.500.000</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>R$ 1.367</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>R$ 3.568</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-749m2-id-2724497854/</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>2724497854</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Rua das Codornas - Estancia Serrana</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>R$ 3.499.980</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>R$ 534</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-estancia-serrana-nova-lima-474m2-id-2631063406/</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>2631063406</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>02/09/2023</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>R$ 8.300.000</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>R$ 1.387</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>R$ 654</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-629m2-id-2653488567/</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>2653488567</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>34003-085</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rua Aldebaran</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Condominio Ville de Montagne</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>R$ 10.700.000</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>R$ 683</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>R$ 100</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Corretores Net</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-quintas-do-sol-nova-lima-2200m2-id-2697576524/</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>2697576524</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>25/09/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>34007-298</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Alameda São Bernardo</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Vila Alpina</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>R$ 6.280.000</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>R$ 1.400</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>R$ 3.612</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-spa-com-hidromassagem-vila-alpina-nova-lima-650m2-id-2744855604/</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>2744855604</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>27/08/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Alameda Perimetral das Orquídeas - Bosque Residencial do Jambreiro</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>R$ 5.380.000</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>R$ 800</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>R$ 2.520</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-bosque-residencial-do-jambreiro-nova-lima-750m2-id-2737750725/</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>2737750725</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>14/08/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>34008-065</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Rua Entre as Árvores</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1530</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>R$ 5.600.000</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>R$ 2.900</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>R$ 414</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>MG Sul Consultoria Imobiliária EIRELI ME - ME</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vale-dos-cristais-nova-lima-1530m2-id-2734878824/</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>2734878824</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Rua das Bromélias - Condomínio Village Terrasse</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>1300</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>R$ 13.490.000</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>R$ 1.400</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>R$ 400</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-village-terrasse-i-nova-lima-1300m2-id-2631065875/</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>2631065875</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>03/10/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Alameda Davos - Vila Alpina</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>R$ 7.000.000</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>R$ 1.500</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>R$ 234</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vila-alpina-nova-lima-mg-600m2-id-2746851453/</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>2746851453</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>21/08/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>34008-083</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Rua Noite de Estio</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Condominio Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>R$ 11.900.000</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>R$ 2.958</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>R$ 4.327</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-vale-dos-cristais-nova-lima-526m2-id-2736485229/</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>2736485229</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>08/05/2023</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Alameda das Gralhas - Residencial Sul</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>R$ 2.890.000</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>R$ 572</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>R$ 250</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-residencial-sul-nova-lima-650m2-id-2631064942/</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>2631064942</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>22/08/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Alameda São Gotardo - Vila Alpina</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>R$ 4.990.000</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>R$ 1.390.000</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>R$ 220</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-vila-alpina-nova-lima-550m2-id-2736616140/</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>2736616140</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>08/07/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>R$ 3.950.000</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>R$ 1.387</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>R$ 2.456</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-370m2-id-2727152149/</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>2727152149</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>23/12/2023</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>34007-209</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Alameda Serra da Mantiqueira</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Vila del Rey</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>R$ 4.500.000</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>R$ 1.500</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>R$ 3.500</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Zsul Imóveis</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-com-piscina-vila-del-rey-nova-lima-551m2-id-2678534895/</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>2678534895</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>08/04/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>34007-343</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Rua Cardeal</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Estancia Serrana</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>R$ 12.000.000</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>R$ 2.550</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>R$ 5.600</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Zsul Imóveis</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-com-piscina-estancia-serrana-nova-lima-851m2-id-2705427697/</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>2705427697</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>08/10/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>34007-298</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Alameda São Bernardo</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1221</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Vila Alpina</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>R$ 5.200.000</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>R$ 1.490</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>R$ 2.800</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vila-alpina-nova-lima-463m2-id-2747912298/</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>2747912298</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>24/09/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>34007-100</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Rua Sevilha</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1202</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Vila Castela</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>R$ 7.500.000</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>R$ 1.745</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>R$ 3.265</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-vila-castela-nova-lima-588m2-id-2744679917/</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>2744679917</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>07/03/2023</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>34018-158</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Rua Paranapanema</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>R$ 2.980.000</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>OPAVENDI IMOBILIÁRIA DESCOMPLICADA LTDAOPAVENDI</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-261m2-id-2617201008/</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>2617201008</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>22/07/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>R$ 7.390.000</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>R$ 1.387</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>R$ 2.456</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-600m2-id-2730017635/</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>2730017635</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>16/08/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Rua Antares - Condominio Quintas do Sol</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>R$ 4.550.000</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>R$ 1.050</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>R$ 4.965</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-quintas-do-sol-nova-lima-590m2-id-2735492229/</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>2735492229</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>24/08/2022</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>34008-080</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Rua da Névoa Transparente</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>R$ 12.900.000</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>R$ 1.720</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>R$ 2.980</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-vale-dos-cristais-nova-lima-638m2-id-2577446848/</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>2577446848</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>21/09/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Alameda Serra do Cabral - Vila del Rey</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>R$ 6.800.000</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>R$ 1.240</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>R$ 310</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>ANUAR DONATO</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-del-rey-nova-lima-776m2-id-2744067682/</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>2744067682</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>11/05/2022</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>34018-140</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Alameda dos Rios</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>R$ 2.690.000</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>R$ 1</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>OPAVENDI IMOBILIÁRIA DESCOMPLICADA LTDAOPAVENDI</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-254m2-id-2562434091/</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>2562434091</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>03/05/2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Rua Bem-Te-Vi - Estancia Serrana</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>R$ 2.950.000</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>R$ 950</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>R$ 250</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-estancia-serrana-nova-lima-550m2-id-2712347615/</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>2712347615</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>24/09/2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>636363</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>R$ 4.990.000</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>R$ 1.345</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>R$ 2.896</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-seguranca-interna-alphaville-lagoa-dos-ingleses-nova-lima-367m2-id-2744641401/</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>2744641401</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>08/02/2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>R$ 2.800.000</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>R$ 800</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>R$ 285</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>EMV CONSULTORIA E IMOVEIS LTDA</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-350m2-id-2689298417/</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>2689298417</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>17/05/2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>34004-860</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Alameda das Tulipas</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Residencial Ipê da Serra</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>R$ 5.500.000</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>R$ 790</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>ROSCOE CONSULTORIA IMOBILIARIA LTDA</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-bosque-residencial-do-jambreiro-nova-lima-429m2-id-2715562522/</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>2715562522</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>10/04/2021</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>760</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>R$ 5.000.000</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>R$ 1.007</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>R$ 2.000</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Lamounier Imóveis</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-5-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-500m2-id-2516453104/</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>2516453104</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>16/01/2024</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>34018-082</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Rua dos Pinheiros</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>R$ 3.690.000</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>R$ 880</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>R$ 1.500</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Danubia Viera Leite Imóveis</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-6-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-770m2-id-2683706118/</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>2683706118</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>15/11/2023</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>34018-084</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Rua dos Araçás</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>R$ 6.450.000</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>R$ 1.065</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>R$ 2.498</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-618m2-id-2669554212/</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>2669554212</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>21/06/2022</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>R$ 3.390.000</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>R$ 1.100</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>R$ 2.800</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-area-de-lazer-alphaville-lagoa-dos-ingleses-nova-lima-50m2-id-2567928409/</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>2567928409</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>09/10/2024</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>8889</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>R$ 4.690.000</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>R$ 1.800</t>
+        </is>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-401m2-id-2748184598/</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>2748184598</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>08/04/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>34004-733</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Alameda das Castanheiras</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Ouro Velho Mansões</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>R$ 2.599.000</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>R$ 850</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>R$ 1.501</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>BE SOLUCOES IMOBILIARIAS LTDA</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-com-piscina-ouro-velho-mansoes-nova-lima-1000m2-id-2705257502/</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>2705257502</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Alameda Monte Grappa - Vila Alpina</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>R$ 7.950.000</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>R$ 1.200</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>R$ 250</t>
+        </is>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Mafuz Imóveis de Luxo</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-vila-alpina-nova-lima-580m2-id-2746357399/</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>2746357399</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>21/08/2023</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>34007-082</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Avenida Reis Magos</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Vila Castela</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>R$ 11.500.000</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>R$ 1.900</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>R$ 250</t>
+        </is>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Antônio Jorge Salum Junior</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-mobiliado-vila-castela-nova-lima-800m2-id-2650949370/</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>2650949370</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>08/04/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Alameda dos Rios - Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>R$ 2.900.000</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>R$ 905</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>R$ 185</t>
+        </is>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>TWA INVESTIMENTOS</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-academia-alphaville-lagoa-dos-ingleses-nova-lima-318m2-id-2705145774/</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>2705145774</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>28/05/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>34003-052</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Rua Zênite</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Condominio Quintas do Sol</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>R$ 4.590.000</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>R$ 1.400</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>R$ 250</t>
+        </is>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>LUXUS IMOVEIS PREMIUM</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-mobiliado-quintas-do-sol-nova-lima-390m2-id-2718053446/</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>2718053446</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>23/07/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>34008-050</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Avenida Constelações</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Vale dos Cristais</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>950</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>R$ 13.000.000</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>não informado</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>não informado</t>
+        </is>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Silvana Lima Imoveis</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-de-condominio-4-quartos-com-piscina-vale-dos-cristais-nova-lima-950m2-id-2730311228/</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>2730311228</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>03/08/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Rua dos Beija-Flores</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>R$ 3.950.000</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>R$ 1.400</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>R$ 120</t>
+        </is>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>BH BROKERS</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-440m2-id-2732652527/</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>2732652527</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>30/09/2024</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Alameda Conde dos Arcos - Conde</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>R$ 4.390.000</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>R$ 706</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>R$ 633</t>
+        </is>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Menezes</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-conde-nova-lima-450m2-id-2746274113/</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>2746274113</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>13/09/2024</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>34018-004</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Avenida Picadilly</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>R$ 7.990.000</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>R$ 832</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>R$ 2.450</t>
+        </is>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>ALPHASUL CONSULTORIA IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-churrasqueira-alphaville-lagoa-dos-ingleses-nova-lima-545m2-id-2741997011/</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>2741997011</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>31/07/2024</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Sobrado</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>34011-027</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Rua Cordélia</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Vale do Sol</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>R$ 880.000</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>R$ 1.200</t>
+        </is>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Antonino Moura Neto</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-sobrados-4-quartos-vale-do-sol-nova-lima-288m2-id-2732030228/</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>2732030228</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>08/01/2021</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>34004-890</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Alameda de Aldebaran</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Condominio Ville de Montagne</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Nova Lima</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>2200</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>R$ 10.700.000</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>isento</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>R$ 4.066</t>
+        </is>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>SO MANSOES IMOBILIARIA</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-5-quartos-ville-de-montagne-nova-lima-2200m2-id-2507257278/</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>2507257278</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>19/07/2024</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Casa</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Nao encontrado</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Rua dos Jatobás - Alphaville Lagoa Dos Ingleses</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>inexistente</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Nova Lim</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>R$ 3.500.000</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>R$ 959</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>R$ 4.200</t>
+        </is>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>MORATO IMÓVEIS</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>https://www.zapimoveis.com.br/imovel/venda-casa-4-quartos-com-piscina-alphaville-lagoa-dos-ingleses-nova-lima-612m2-id-2729449823/</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>2729449823</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
